--- a/biology/Zoologie/Chrysis_ignita/Chrysis_ignita.xlsx
+++ b/biology/Zoologie/Chrysis_ignita/Chrysis_ignita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysis ignita est une espèce d’insectes hyménoptères parasitoïdes. C'est une « guêpe coucou » de la famille des Chrysididae et du genre Chrysis.
 </t>
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphologie
-Les imagos ont une taille comprise entre 5 et 10 mm. Le corps aux reflets métalliques est bleu/vert pour la tête et le thorax et rubis pour l’abdomen. La surface inférieure de ce dernier est arrondie pour permettre à l’insecte de se rouler en boule en cas de danger[1].
-Parasitisme
-Comme la plupart des membres de la famille des Chrysididae, Chrysis ignita est une espèce parasitaire des espèces du genre Ancistrocerus (hyménoptères de la famille des Vespidae, sous-famille des Eumeninae)[2]. Plus rarement on retrouve des infestations de nids d’Osmia cornuta et d’Osmia rufa[1],[2].
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les imagos ont une taille comprise entre 5 et 10 mm. Le corps aux reflets métalliques est bleu/vert pour la tête et le thorax et rubis pour l’abdomen. La surface inférieure de ce dernier est arrondie pour permettre à l’insecte de se rouler en boule en cas de danger.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chrysis_ignita</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysis_ignita</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parasitisme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme la plupart des membres de la famille des Chrysididae, Chrysis ignita est une espèce parasitaire des espèces du genre Ancistrocerus (hyménoptères de la famille des Vespidae, sous-famille des Eumeninae). Plus rarement on retrouve des infestations de nids d’Osmia cornuta et d’Osmia rufa,.
 </t>
         </is>
       </c>
